--- a/data/trans_orig/Q5408-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5408-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8147</v>
+        <v>7807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01566524895986001</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05448164042390502</v>
+        <v>0.05220983539462134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8275</v>
+        <v>7253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00885555389822513</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0312841012975612</v>
+        <v>0.02742012477311053</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>7336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3633</v>
+        <v>3549</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13902</v>
+        <v>13046</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06379312452799105</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03159087661136444</v>
+        <v>0.03086745299619018</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1208971144461337</v>
+        <v>0.1134523869318187</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -828,19 +828,19 @@
         <v>7722</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16137</v>
+        <v>15317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05164218024607289</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02221934048333657</v>
+        <v>0.02223565878211153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.107911885008864</v>
+        <v>0.1024297077250116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -849,19 +849,19 @@
         <v>15058</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9040</v>
+        <v>8475</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23656</v>
+        <v>23776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05692420452049068</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03417298250423315</v>
+        <v>0.03203971373338114</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08942845326025239</v>
+        <v>0.08988280114889599</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>107653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101087</v>
+        <v>101943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>111356</v>
+        <v>111440</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.936206875472009</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8791028855538663</v>
+        <v>0.8865476130681813</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9684091233886355</v>
+        <v>0.9691325470038099</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -899,19 +899,19 @@
         <v>139470</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>130284</v>
+        <v>130925</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>144349</v>
+        <v>144241</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9326925707940671</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.871259129648924</v>
+        <v>0.8755446421975133</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9653215924726501</v>
+        <v>0.9645944776117593</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>253</v>
@@ -920,19 +920,19 @@
         <v>247124</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>237407</v>
+        <v>236827</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>253636</v>
+        <v>253970</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9342202415812841</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8974872982083771</v>
+        <v>0.8952954748600216</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9588406118570386</v>
+        <v>0.9601013909786436</v>
       </c>
     </row>
     <row r="7">
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5347</v>
+        <v>6674</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007226006816476298</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02927098003119835</v>
+        <v>0.0365357103489438</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6066</v>
+        <v>7808</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004017561979126928</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01846197147256108</v>
+        <v>0.02376283826268556</v>
       </c>
     </row>
     <row r="9">
@@ -1087,19 +1087,19 @@
         <v>4779</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1858</v>
+        <v>1029</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10673</v>
+        <v>9535</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03275927887652808</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01273457739419382</v>
+        <v>0.007052908050870404</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07315856834440064</v>
+        <v>0.06535808695499114</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1108,19 +1108,19 @@
         <v>8399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3705</v>
+        <v>3606</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17685</v>
+        <v>16699</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04597608925878782</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02027866186693689</v>
+        <v>0.01974205593693247</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0968083746674052</v>
+        <v>0.09141255630096697</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -1129,19 +1129,19 @@
         <v>13178</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7133</v>
+        <v>7059</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22130</v>
+        <v>22128</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0401076465470405</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02170942246048496</v>
+        <v>0.02148306793726075</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06735319768868363</v>
+        <v>0.06734714722302754</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>141110</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135216</v>
+        <v>136354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144031</v>
+        <v>144860</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9672407211234719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9268414316555992</v>
+        <v>0.9346419130450089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9872654226058061</v>
+        <v>0.9929470919491296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>161</v>
@@ -1179,19 +1179,19 @@
         <v>172961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>163666</v>
+        <v>163433</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>177906</v>
+        <v>178133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9467979039247358</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8959175452550528</v>
+        <v>0.8946399458384534</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9738655846683992</v>
+        <v>0.9751072084352965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>302</v>
@@ -1200,19 +1200,19 @@
         <v>314070</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>304966</v>
+        <v>304141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320302</v>
+        <v>320497</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9558747914738326</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9281665730567223</v>
+        <v>0.9256572936248404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9748437077325304</v>
+        <v>0.9754344890578954</v>
       </c>
     </row>
     <row r="11">
@@ -1351,19 +1351,19 @@
         <v>2778</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7736</v>
+        <v>7696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02661313222034581</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008414451987566953</v>
+        <v>0.008354450473884395</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07411591673615521</v>
+        <v>0.07373943331776246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1372,19 +1372,19 @@
         <v>10086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4518</v>
+        <v>4783</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17708</v>
+        <v>18169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07424519782438553</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03325741487381886</v>
+        <v>0.03520948269189055</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1303480069762816</v>
+        <v>0.1337406645848285</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1393,19 +1393,19 @@
         <v>12864</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6970</v>
+        <v>6886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21735</v>
+        <v>21581</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05355004155658236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02901578999186656</v>
+        <v>0.02866551727936186</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0904785405501953</v>
+        <v>0.08983779408561267</v>
       </c>
     </row>
     <row r="14">
@@ -1422,19 +1422,19 @@
         <v>101593</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96635</v>
+        <v>96675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103493</v>
+        <v>103499</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9733868677796542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9258840832638481</v>
+        <v>0.9262605666822388</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.991585548012433</v>
+        <v>0.9916455495261156</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -1443,19 +1443,19 @@
         <v>125764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118142</v>
+        <v>117681</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131332</v>
+        <v>131067</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9257548021756145</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8696519930237182</v>
+        <v>0.8662593354151705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9667425851261812</v>
+        <v>0.9647905173081089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>230</v>
@@ -1464,19 +1464,19 @@
         <v>227357</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218486</v>
+        <v>218640</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>233251</v>
+        <v>233335</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9464499584434176</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9095214594498048</v>
+        <v>0.9101622059143873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9709842100081335</v>
+        <v>0.9713344827206382</v>
       </c>
     </row>
     <row r="15">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5080</v>
+        <v>5824</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01216361744590918</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03701961352470693</v>
+        <v>0.04244481475550524</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6936</v>
+        <v>6524</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009677980957457777</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0332238563666399</v>
+        <v>0.03124992299205712</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1610,19 +1610,19 @@
         <v>3690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>843</v>
+        <v>898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8207</v>
+        <v>8608</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01066375463242128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00243739896857991</v>
+        <v>0.002596736591531584</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02371934435617771</v>
+        <v>0.02488005925806381</v>
       </c>
     </row>
     <row r="17">
@@ -1639,19 +1639,19 @@
         <v>2548</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6885</v>
+        <v>6810</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01857224985678526</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005960424688382569</v>
+        <v>0.005839874995315354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05017850982379143</v>
+        <v>0.04962820936187485</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1660,19 +1660,19 @@
         <v>5517</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2066</v>
+        <v>2079</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12318</v>
+        <v>12481</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02642654903619729</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009897893592849054</v>
+        <v>0.009959119378145094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0589988909681915</v>
+        <v>0.05977910869196635</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1681,19 +1681,19 @@
         <v>8066</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3686</v>
+        <v>3509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15889</v>
+        <v>14935</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02331162800799192</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01065336351099418</v>
+        <v>0.01014237847896559</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04592292599097404</v>
+        <v>0.04316494681223138</v>
       </c>
     </row>
     <row r="18">
@@ -1710,19 +1710,19 @@
         <v>133000</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>127989</v>
+        <v>127891</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135567</v>
+        <v>135573</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9692641326973056</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.932747846834294</v>
+        <v>0.9320357476404854</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9879723437343192</v>
+        <v>0.9880213867465309</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>193</v>
@@ -1731,19 +1731,19 @@
         <v>201239</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>193930</v>
+        <v>193722</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>205601</v>
+        <v>205615</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9638954700063449</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9288855790010212</v>
+        <v>0.9278894377258166</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9847860283879605</v>
+        <v>0.9848533551132133</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>344</v>
@@ -1752,19 +1752,19 @@
         <v>334240</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>325924</v>
+        <v>326513</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>339638</v>
+        <v>339889</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9660246173595868</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9419902174560209</v>
+        <v>0.9436916549387475</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9816271210629354</v>
+        <v>0.9823510914865012</v>
       </c>
     </row>
     <row r="19">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5886</v>
+        <v>6204</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003321736080943579</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01171345244440895</v>
+        <v>0.0123469855247412</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1877,19 +1877,19 @@
         <v>5683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2267</v>
+        <v>2027</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12833</v>
+        <v>12102</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008396488275372838</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003348683294825694</v>
+        <v>0.002994304515040671</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01896009007567728</v>
+        <v>0.01787959421071805</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1898,19 +1898,19 @@
         <v>7352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3152</v>
+        <v>3240</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14549</v>
+        <v>16262</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006234296162276147</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00267312817762913</v>
+        <v>0.002747762851244285</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0123371177699915</v>
+        <v>0.01378927596309922</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>17441</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10793</v>
+        <v>11197</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26917</v>
+        <v>26246</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03471037981447057</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02147977295699617</v>
+        <v>0.02228341456605352</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05357019176056549</v>
+        <v>0.05223529080375977</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -1948,19 +1948,19 @@
         <v>31725</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21358</v>
+        <v>22058</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44840</v>
+        <v>44987</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04687161659798267</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03155587194123231</v>
+        <v>0.03259005343392191</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06624823102259059</v>
+        <v>0.06646577657628658</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>47</v>
@@ -1969,19 +1969,19 @@
         <v>49165</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37577</v>
+        <v>34743</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66106</v>
+        <v>63138</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04169009654510675</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03186346394981429</v>
+        <v>0.02946015995823201</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05605529266647599</v>
+        <v>0.05353812495604463</v>
       </c>
     </row>
     <row r="22">
@@ -1998,19 +1998,19 @@
         <v>483356</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>473329</v>
+        <v>474315</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>490313</v>
+        <v>489966</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9619678841045859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9420111361109589</v>
+        <v>0.9439736203686379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9758133276603055</v>
+        <v>0.9751230505364583</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>627</v>
@@ -2019,19 +2019,19 @@
         <v>639434</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>625539</v>
+        <v>625202</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>650815</v>
+        <v>649307</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9447318951266445</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9242026352048192</v>
+        <v>0.9237041200183478</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9615463125564009</v>
+        <v>0.9593184737954652</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1129</v>
@@ -2040,19 +2040,19 @@
         <v>1122790</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1105355</v>
+        <v>1108311</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1135611</v>
+        <v>1137175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9520756072926171</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9372912312527529</v>
+        <v>0.9397978072624931</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9629469883816701</v>
+        <v>0.9642730874469893</v>
       </c>
     </row>
     <row r="23">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8471</v>
+        <v>6449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01523049134908442</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06070591178703362</v>
+        <v>0.04621556507026429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8453</v>
+        <v>7420</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01272847503119977</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0506826540791369</v>
+        <v>0.0444879596259547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2426,19 +2426,19 @@
         <v>4248</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9586</v>
+        <v>11317</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01386824326870405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003469878286046045</v>
+        <v>0.003473073097123025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03129170632557939</v>
+        <v>0.03694363991722951</v>
       </c>
     </row>
     <row r="5">
@@ -2455,19 +2455,19 @@
         <v>4035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1035</v>
+        <v>964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9935</v>
+        <v>9261</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02891840194281189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007413687320368542</v>
+        <v>0.006910764804143575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07119254106486554</v>
+        <v>0.06636146582189048</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2476,19 +2476,19 @@
         <v>9717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4374</v>
+        <v>4315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18118</v>
+        <v>16434</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05826246802396356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02622299809184185</v>
+        <v>0.02587047967432543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1086296126050646</v>
+        <v>0.0985326000437847</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -2497,19 +2497,19 @@
         <v>13753</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7481</v>
+        <v>7493</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22359</v>
+        <v>22217</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04489507539768368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02442154916160971</v>
+        <v>0.02446145548973728</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07298937488627484</v>
+        <v>0.07252447209915244</v>
       </c>
     </row>
     <row r="6">
@@ -2526,19 +2526,19 @@
         <v>133386</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>126448</v>
+        <v>126594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137427</v>
+        <v>137488</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9558511067081037</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9061328087948531</v>
+        <v>0.9071788807168076</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9848045782014159</v>
+        <v>0.9852475852554612</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>146</v>
@@ -2547,19 +2547,19 @@
         <v>154947</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>146306</v>
+        <v>147345</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>161272</v>
+        <v>160627</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9290090569448367</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8772035495501487</v>
+        <v>0.8834301116046266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9669341440635387</v>
+        <v>0.963065610685282</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>269</v>
@@ -2568,19 +2568,19 @@
         <v>288333</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>278936</v>
+        <v>278061</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>295630</v>
+        <v>295638</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9412366813336123</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9105631026002324</v>
+        <v>0.9077069219131837</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9650563552429452</v>
+        <v>0.9650850206150626</v>
       </c>
     </row>
     <row r="7">
@@ -2672,19 +2672,19 @@
         <v>4022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1022</v>
+        <v>998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9922</v>
+        <v>9240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0259665863515785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006601264424341871</v>
+        <v>0.00644603558779399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06406360380403886</v>
+        <v>0.05965689941710305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -2693,19 +2693,19 @@
         <v>6524</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2196</v>
+        <v>2232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12858</v>
+        <v>13101</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03408272800655834</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01146957643770321</v>
+        <v>0.01166073413449006</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06717286572405404</v>
+        <v>0.06844210094976771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -2714,19 +2714,19 @@
         <v>10546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5482</v>
+        <v>5189</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19026</v>
+        <v>18485</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03045287115313899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01582943760295415</v>
+        <v>0.01498424619611505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05493991454647872</v>
+        <v>0.05337983863623092</v>
       </c>
     </row>
     <row r="9">
@@ -2743,19 +2743,19 @@
         <v>9921</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4542</v>
+        <v>4490</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18327</v>
+        <v>17602</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06405624525875427</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02932438398205328</v>
+        <v>0.02898866241126283</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.118331010626566</v>
+        <v>0.1136506408860992</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -2764,19 +2764,19 @@
         <v>16348</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8982</v>
+        <v>9737</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25698</v>
+        <v>26707</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08540414437325176</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0469228361904015</v>
+        <v>0.05086700448591607</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1342488944954102</v>
+        <v>0.1395190222911304</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -2785,19 +2785,19 @@
         <v>26269</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17165</v>
+        <v>17171</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37186</v>
+        <v>38519</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07585652665032573</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04956819062968046</v>
+        <v>0.04958400660948054</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1073820010010603</v>
+        <v>0.1112313941605604</v>
       </c>
     </row>
     <row r="10">
@@ -2814,19 +2814,19 @@
         <v>140935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132554</v>
+        <v>132073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>147395</v>
+        <v>147166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9099771683896672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.855861522490629</v>
+        <v>0.8527562520427577</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9516871775564052</v>
+        <v>0.9502074940493374</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -2835,19 +2835,19 @@
         <v>168548</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157023</v>
+        <v>157339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176705</v>
+        <v>176704</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8805131276201899</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8203051163497476</v>
+        <v>0.8219561462244551</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9231281475083282</v>
+        <v>0.9231232558429265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>282</v>
@@ -2856,19 +2856,19 @@
         <v>309483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>296869</v>
+        <v>296349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320042</v>
+        <v>319635</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8936906021965353</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8572641688453312</v>
+        <v>0.8557637017627763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.924180244440171</v>
+        <v>0.9230048151111591</v>
       </c>
     </row>
     <row r="11">
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11777</v>
+        <v>12773</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03214784666777491</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1136783732094226</v>
+        <v>0.1232898194692649</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -2981,19 +2981,19 @@
         <v>6579</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2348</v>
+        <v>2256</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15206</v>
+        <v>14438</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04665555442314887</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01664699169683297</v>
+        <v>0.01599835572775085</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1078282403637809</v>
+        <v>0.1023855127097093</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -3002,19 +3002,19 @@
         <v>9910</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4429</v>
+        <v>4342</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21836</v>
+        <v>18754</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04051136442781753</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01810672905121389</v>
+        <v>0.0177485085815212</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08926426252393863</v>
+        <v>0.07666769147915718</v>
       </c>
     </row>
     <row r="13">
@@ -3031,19 +3031,19 @@
         <v>5199</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1995</v>
+        <v>1942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11438</v>
+        <v>10865</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05018051256029206</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01925244836909829</v>
+        <v>0.01874084612734447</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1104116327133701</v>
+        <v>0.1048731163593898</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3052,19 +3052,19 @@
         <v>9595</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4944</v>
+        <v>4497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17803</v>
+        <v>17558</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06803820686152171</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03506193777468359</v>
+        <v>0.03188816405938082</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1262487356108145</v>
+        <v>0.1245050768549606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3073,19 +3073,19 @@
         <v>14793</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8417</v>
+        <v>8630</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24422</v>
+        <v>23767</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0604752569789217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03441047828510859</v>
+        <v>0.03527828204743028</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09983647081951759</v>
+        <v>0.09716196658201977</v>
       </c>
     </row>
     <row r="14">
@@ -3102,19 +3102,19 @@
         <v>95069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87156</v>
+        <v>87160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100325</v>
+        <v>100328</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9176716407719331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8412937063219484</v>
+        <v>0.8413282977534414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9684065393336675</v>
+        <v>0.9684338598717499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -3123,19 +3123,19 @@
         <v>124845</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>114452</v>
+        <v>115815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131464</v>
+        <v>131808</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8853062387153294</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8116081378461696</v>
+        <v>0.82126923046167</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9322462396610088</v>
+        <v>0.9346791613407809</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>198</v>
@@ -3144,19 +3144,19 @@
         <v>219914</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>207158</v>
+        <v>207684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>228525</v>
+        <v>227963</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8990133785932608</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8468667690399909</v>
+        <v>0.8490159779031262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9342169266523018</v>
+        <v>0.9319161933256186</v>
       </c>
     </row>
     <row r="15">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4757</v>
+        <v>4964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006138823562386502</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02943709691478355</v>
+        <v>0.03071739610679956</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3269,19 +3269,19 @@
         <v>4128</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10274</v>
+        <v>10291</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01693654244861774</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004421473683979924</v>
+        <v>0.004400438811155089</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04214880872446274</v>
+        <v>0.04222117433564804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3290,19 +3290,19 @@
         <v>5120</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1973</v>
+        <v>1921</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11199</v>
+        <v>11237</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01263162184054217</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004868370129387817</v>
+        <v>0.004739661615844828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0276263290977561</v>
+        <v>0.0277211971262901</v>
       </c>
     </row>
     <row r="17">
@@ -3319,19 +3319,19 @@
         <v>7068</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2852</v>
+        <v>2983</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14235</v>
+        <v>15734</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04373163914563438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01764666826191242</v>
+        <v>0.01845489690501074</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08808067912026421</v>
+        <v>0.09735690988317595</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -3340,19 +3340,19 @@
         <v>10451</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5262</v>
+        <v>5274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18870</v>
+        <v>19496</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04287694708184424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02158942527775708</v>
+        <v>0.02163674423888152</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07741670716101415</v>
+        <v>0.07998357481534807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -3361,19 +3361,19 @@
         <v>17519</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10133</v>
+        <v>9528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27131</v>
+        <v>27416</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04321770252452025</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02499745007158308</v>
+        <v>0.0235045470998935</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06693073183771532</v>
+        <v>0.06763370387173133</v>
       </c>
     </row>
     <row r="18">
@@ -3390,19 +3390,19 @@
         <v>153553</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>146328</v>
+        <v>145181</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>158519</v>
+        <v>157716</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9501295372919791</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9054220218712465</v>
+        <v>0.8983222062887707</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9808561175399022</v>
+        <v>0.975885121221316</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>217</v>
@@ -3411,19 +3411,19 @@
         <v>229170</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>219776</v>
+        <v>219935</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>235622</v>
+        <v>235286</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9401865104695381</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9016470037651951</v>
+        <v>0.902297638176748</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9666549303809227</v>
+        <v>0.9652744509953967</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>357</v>
@@ -3432,19 +3432,19 @@
         <v>382724</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>372841</v>
+        <v>371490</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>391123</v>
+        <v>391059</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9441506756349376</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9197708579836332</v>
+        <v>0.9164370969212583</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9648717495868794</v>
+        <v>0.9647126838499821</v>
       </c>
     </row>
     <row r="19">
@@ -3536,19 +3536,19 @@
         <v>10470</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5231</v>
+        <v>5234</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19502</v>
+        <v>19239</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01870784846397888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0093478597519117</v>
+        <v>0.00935240345740568</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03484681146896472</v>
+        <v>0.03437763915940308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -3557,19 +3557,19 @@
         <v>19355</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11812</v>
+        <v>11881</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30552</v>
+        <v>30071</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02605018319372777</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01589847652536852</v>
+        <v>0.0159915189884634</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04112063424269925</v>
+        <v>0.04047443297389419</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -3578,19 +3578,19 @@
         <v>29824</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18789</v>
+        <v>19779</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43307</v>
+        <v>43129</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02289571944054244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01442438885814439</v>
+        <v>0.01518396196313548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03324609062771073</v>
+        <v>0.03310958248231983</v>
       </c>
     </row>
     <row r="21">
@@ -3607,19 +3607,19 @@
         <v>26223</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17758</v>
+        <v>17218</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37241</v>
+        <v>38520</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04685648781833272</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03173138924183686</v>
+        <v>0.03076661652544018</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06654568409916378</v>
+        <v>0.06883080827416654</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>42</v>
@@ -3628,19 +3628,19 @@
         <v>46111</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32871</v>
+        <v>33164</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>60905</v>
+        <v>60314</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06206314365299925</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04424225637169368</v>
+        <v>0.04463615161719475</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08197406524080343</v>
+        <v>0.08117955660891571</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>66</v>
@@ -3649,19 +3649,19 @@
         <v>72334</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55480</v>
+        <v>55928</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91427</v>
+        <v>91242</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05552995681213448</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04259103665226126</v>
+        <v>0.04293553236162992</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07018755122308599</v>
+        <v>0.07004517577434112</v>
       </c>
     </row>
     <row r="22">
@@ -3678,19 +3678,19 @@
         <v>522945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>509137</v>
+        <v>509255</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>533009</v>
+        <v>532930</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9344356637176884</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.909763676361668</v>
+        <v>0.909973999572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.952418452264843</v>
+        <v>0.9522775903799804</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>635</v>
@@ -3699,19 +3699,19 @@
         <v>677509</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>660113</v>
+        <v>661567</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>693565</v>
+        <v>694105</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.911886673153273</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.888473170846284</v>
+        <v>0.8904300392702643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9334971330009076</v>
+        <v>0.9342233285922682</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1106</v>
@@ -3720,19 +3720,19 @@
         <v>1200454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1179018</v>
+        <v>1179295</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1220954</v>
+        <v>1218334</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9215743237473231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9051179526849548</v>
+        <v>0.9053307153567011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9373118028376732</v>
+        <v>0.9353006077508249</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>3351</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7814</v>
+        <v>8469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02450915608555832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00601177056859834</v>
+        <v>0.006236355889775153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05714526773401883</v>
+        <v>0.06193999695034345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7289</v>
+        <v>8418</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01383515368999795</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04203514537434557</v>
+        <v>0.04855196512916454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4106,19 +4106,19 @@
         <v>5750</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2414</v>
+        <v>2427</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11657</v>
+        <v>12838</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0185413196549634</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007784511769415335</v>
+        <v>0.007827205127359523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03758905908042436</v>
+        <v>0.04139509095741313</v>
       </c>
     </row>
     <row r="5">
@@ -4135,19 +4135,19 @@
         <v>7590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3533</v>
+        <v>3414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14039</v>
+        <v>13023</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0555059273831954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02583602592350898</v>
+        <v>0.02496929792949218</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1026769841226601</v>
+        <v>0.09524550075018691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -4156,19 +4156,19 @@
         <v>6851</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2534</v>
+        <v>2330</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13914</v>
+        <v>13452</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03951361833375158</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01461177031977225</v>
+        <v>0.01343947248026466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08024787090450256</v>
+        <v>0.07758172501414468</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -4177,19 +4177,19 @@
         <v>14441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8497</v>
+        <v>7866</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23162</v>
+        <v>23230</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04656462485975772</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02739769864486718</v>
+        <v>0.02536339591303742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07468728730482255</v>
+        <v>0.07490504062458055</v>
       </c>
     </row>
     <row r="6">
@@ -4206,19 +4206,19 @@
         <v>125793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>118890</v>
+        <v>119584</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130474</v>
+        <v>130569</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9199849165312463</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8694964916413155</v>
+        <v>0.8745731488473136</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9542210908661435</v>
+        <v>0.9549090921878823</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>149</v>
@@ -4227,19 +4227,19 @@
         <v>164141</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>156253</v>
+        <v>157158</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>168890</v>
+        <v>169998</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9466512279762505</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.901159295781103</v>
+        <v>0.9063766350685986</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9740407773370904</v>
+        <v>0.9804301700097776</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>284</v>
@@ -4248,19 +4248,19 @@
         <v>289934</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>281013</v>
+        <v>280518</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>297427</v>
+        <v>298271</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9348940554852789</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9061286559159163</v>
+        <v>0.9045325651664717</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9590549312831158</v>
+        <v>0.9617754859017978</v>
       </c>
     </row>
     <row r="7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4183</v>
+        <v>4994</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005006132188800631</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02535990570759767</v>
+        <v>0.03027785292876633</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4373,19 +4373,19 @@
         <v>4612</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1270</v>
+        <v>1283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13059</v>
+        <v>13737</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02104407836995457</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005796998292021957</v>
+        <v>0.005852626928882821</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05958508493446663</v>
+        <v>0.06268052177734819</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -4394,19 +4394,19 @@
         <v>5438</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1661</v>
+        <v>1342</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15294</v>
+        <v>13444</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01415710936572436</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004324429636724686</v>
+        <v>0.003493765193341081</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03981622211718051</v>
+        <v>0.03500167998260364</v>
       </c>
     </row>
     <row r="9">
@@ -4423,19 +4423,19 @@
         <v>8608</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4339</v>
+        <v>4319</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14900</v>
+        <v>15638</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05218892458059291</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02630709861886023</v>
+        <v>0.02618718067362105</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09033704276651598</v>
+        <v>0.09481175451439176</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -4444,19 +4444,19 @@
         <v>11404</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5066</v>
+        <v>5390</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20053</v>
+        <v>21005</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05203251533453691</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02311305493184508</v>
+        <v>0.02459584726491125</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09149666045565195</v>
+        <v>0.09584275935362357</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -4465,19 +4465,19 @@
         <v>20012</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12281</v>
+        <v>12124</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30214</v>
+        <v>29682</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05209968014587843</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03197343294844333</v>
+        <v>0.03156488424984408</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07866064244694126</v>
+        <v>0.07727655716240209</v>
       </c>
     </row>
     <row r="10">
@@ -4494,19 +4494,19 @@
         <v>155507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148520</v>
+        <v>148502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159813</v>
+        <v>159861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9428049432306065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9004431952020638</v>
+        <v>0.9003325458275093</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9689127138644328</v>
+        <v>0.9692011787773198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -4515,19 +4515,19 @@
         <v>203147</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193095</v>
+        <v>191935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210654</v>
+        <v>209882</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9269234062955085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8810554617881993</v>
+        <v>0.8757631384433389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9611755107000072</v>
+        <v>0.9576543957445296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>334</v>
@@ -4536,19 +4536,19 @@
         <v>358655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>347209</v>
+        <v>346709</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>368101</v>
+        <v>367415</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9337432104883973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9039450835472893</v>
+        <v>0.9026433530147001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9583367526025692</v>
+        <v>0.9565517596012491</v>
       </c>
     </row>
     <row r="11">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8109</v>
+        <v>9211</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01836035630061222</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05686538305447871</v>
+        <v>0.06459759021472095</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9883</v>
+        <v>9185</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0101622590966245</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03836258031557758</v>
+        <v>0.03565345969272276</v>
       </c>
     </row>
     <row r="13">
@@ -4703,19 +4703,19 @@
         <v>2750</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7477</v>
+        <v>7374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02390644435524939</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007032774221855439</v>
+        <v>0.007058012514910169</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06500155309822965</v>
+        <v>0.06409871894009476</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4724,19 +4724,19 @@
         <v>11409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5205</v>
+        <v>5228</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20098</v>
+        <v>19325</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08001113076658867</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0365032558920816</v>
+        <v>0.03666164760583621</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1409441285136023</v>
+        <v>0.135520657369547</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4745,19 +4745,19 @@
         <v>14159</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7415</v>
+        <v>7275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24404</v>
+        <v>23200</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05495978289138043</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02878252684711812</v>
+        <v>0.02823824455910627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09472627950674849</v>
+        <v>0.09004988794320073</v>
       </c>
     </row>
     <row r="14">
@@ -4774,19 +4774,19 @@
         <v>112285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107558</v>
+        <v>107661</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114226</v>
+        <v>114223</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9760935556447506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9349984469017703</v>
+        <v>0.9359012810599053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9929672257781446</v>
+        <v>0.9929419874850898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -4795,19 +4795,19 @@
         <v>128569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118109</v>
+        <v>119308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134995</v>
+        <v>135089</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9016285129327991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8282754376007273</v>
+        <v>0.8366881865634298</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9466929095327594</v>
+        <v>0.9473518374151355</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>218</v>
@@ -4816,19 +4816,19 @@
         <v>240854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>230120</v>
+        <v>229806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>247808</v>
+        <v>247746</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.934877958011995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8932143518723676</v>
+        <v>0.8919949085649649</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9618731185254066</v>
+        <v>0.9616320547354403</v>
       </c>
     </row>
     <row r="15">
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6529</v>
+        <v>6487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007442890840779904</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03739127679649292</v>
+        <v>0.03714708420177467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4941,19 +4941,19 @@
         <v>3754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11168</v>
+        <v>10187</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01546256337224114</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00505232972760698</v>
+        <v>0.005034244017486412</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04599879355232799</v>
+        <v>0.04196042264233465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -4962,19 +4962,19 @@
         <v>5054</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11436</v>
+        <v>12450</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01210754852167118</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003041623236014347</v>
+        <v>0.003006586555554483</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02739832889436924</v>
+        <v>0.02982855519990766</v>
       </c>
     </row>
     <row r="17">
@@ -4991,19 +4991,19 @@
         <v>4576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1679</v>
+        <v>1642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10705</v>
+        <v>10588</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02620586362071789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009617748290131831</v>
+        <v>0.009402941124301152</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06130712246697811</v>
+        <v>0.06063774635990421</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -5012,19 +5012,19 @@
         <v>5284</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1319</v>
+        <v>1346</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11832</v>
+        <v>12853</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02176577510062655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005433312369162992</v>
+        <v>0.005542479747112645</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04873600378965679</v>
+        <v>0.0529387079563649</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -5033,19 +5033,19 @@
         <v>9860</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5109</v>
+        <v>4750</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20180</v>
+        <v>18919</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02362327774357267</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01223936566204151</v>
+        <v>0.01137894147648242</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04834715533450998</v>
+        <v>0.04532687712518559</v>
       </c>
     </row>
     <row r="18">
@@ -5062,19 +5062,19 @@
         <v>168742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>161175</v>
+        <v>162136</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>172091</v>
+        <v>172413</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9663512455385022</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9230124733606294</v>
+        <v>0.928520342259154</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9855307947401267</v>
+        <v>0.987369575975596</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>191</v>
@@ -5083,19 +5083,19 @@
         <v>233743</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>224626</v>
+        <v>224977</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>238883</v>
+        <v>238896</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9627716615271323</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9252190857584557</v>
+        <v>0.926667673193741</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9839439072874869</v>
+        <v>0.9839996640559261</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>375</v>
@@ -5104,19 +5104,19 @@
         <v>402486</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>391653</v>
+        <v>392610</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>408771</v>
+        <v>408863</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9642691737347562</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9383163859096902</v>
+        <v>0.9406080366633519</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9793266790663802</v>
+        <v>0.9795478122230811</v>
       </c>
     </row>
     <row r="19">
@@ -5208,19 +5208,19 @@
         <v>5477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2113</v>
+        <v>2092</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11374</v>
+        <v>11823</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009261549240334146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003573182694771393</v>
+        <v>0.003537932215953397</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01923483549367026</v>
+        <v>0.01999351645352997</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -5229,19 +5229,19 @@
         <v>13383</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7091</v>
+        <v>7069</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23757</v>
+        <v>23731</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01720346040234714</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009115801351956894</v>
+        <v>0.009086512801062683</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03053932571576464</v>
+        <v>0.03050485454319023</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -5250,19 +5250,19 @@
         <v>18860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10601</v>
+        <v>11442</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30162</v>
+        <v>30054</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01377366776525647</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007741863271827797</v>
+        <v>0.008356449998219028</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02202818806661321</v>
+        <v>0.02194925302946781</v>
       </c>
     </row>
     <row r="21">
@@ -5279,19 +5279,19 @@
         <v>23524</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15994</v>
+        <v>15896</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34032</v>
+        <v>34177</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03978118151313439</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02704814602470635</v>
+        <v>0.02688103692218831</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0575515790825916</v>
+        <v>0.05779786445730018</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -5300,19 +5300,19 @@
         <v>34948</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>23807</v>
+        <v>25011</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>48305</v>
+        <v>50311</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04492491847575505</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03060349731855813</v>
+        <v>0.03215114421716757</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06209399331929879</v>
+        <v>0.06467267524717314</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>55</v>
@@ -5321,19 +5321,19 @@
         <v>58472</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>45181</v>
+        <v>44853</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>73476</v>
+        <v>74996</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04270354495474278</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03299650412150031</v>
+        <v>0.03275704383322503</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05366084057600896</v>
+        <v>0.05477158781657473</v>
       </c>
     </row>
     <row r="22">
@@ -5350,19 +5350,19 @@
         <v>562328</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>551120</v>
+        <v>551194</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>571126</v>
+        <v>571412</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9509572692465315</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9320036797263731</v>
+        <v>0.9321285243676153</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9658362598610838</v>
+        <v>0.9663193441496558</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>617</v>
@@ -5371,19 +5371,19 @@
         <v>729599</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>713773</v>
+        <v>713049</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>742976</v>
+        <v>742614</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9378716211218978</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9175279514221117</v>
+        <v>0.9165962355355286</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9550669608794189</v>
+        <v>0.9546018739430425</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1211</v>
@@ -5392,19 +5392,19 @@
         <v>1291927</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1273906</v>
+        <v>1272896</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1308013</v>
+        <v>1308889</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9435227872800007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9303613058133681</v>
+        <v>0.9296241851647191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9552707591521544</v>
+        <v>0.9559105894845716</v>
       </c>
     </row>
     <row r="23">
@@ -5736,19 +5736,19 @@
         <v>1516</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>340</v>
+        <v>478</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3702</v>
+        <v>3711</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009282808950606385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002079471473345941</v>
+        <v>0.00292707442970557</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02266516945326531</v>
+        <v>0.02272540329474678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5757,19 +5757,19 @@
         <v>3467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1563</v>
+        <v>1388</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6619</v>
+        <v>6579</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01814810921746806</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008180032115044348</v>
+        <v>0.007267649577349333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03464991137445892</v>
+        <v>0.03444221652183817</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -5778,19 +5778,19 @@
         <v>4983</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2459</v>
+        <v>2528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8734</v>
+        <v>8649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01406215685954508</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006938295583893156</v>
+        <v>0.007134983747498836</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02464733490561222</v>
+        <v>0.02440845539895202</v>
       </c>
     </row>
     <row r="5">
@@ -5807,19 +5807,19 @@
         <v>5601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2847</v>
+        <v>3017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9799</v>
+        <v>9968</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03429473011352745</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01743297088484013</v>
+        <v>0.01847156418109634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06000021677206949</v>
+        <v>0.06103827289029513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -5828,19 +5828,19 @@
         <v>15199</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10711</v>
+        <v>10635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20222</v>
+        <v>20120</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07956353626036182</v>
+        <v>0.07956353626036181</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05607020474167301</v>
+        <v>0.05567270737098398</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1058561142355223</v>
+        <v>0.105326777035787</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -5849,19 +5849,19 @@
         <v>20800</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15882</v>
+        <v>15410</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27466</v>
+        <v>27260</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05869947304217436</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04482097211331425</v>
+        <v>0.0434901661244719</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07751236711005238</v>
+        <v>0.07692994731656419</v>
       </c>
     </row>
     <row r="6">
@@ -5878,19 +5878,19 @@
         <v>156197</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>151798</v>
+        <v>151512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>159304</v>
+        <v>159170</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9564224609358661</v>
+        <v>0.9564224609358662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9294861213252084</v>
+        <v>0.9277367808905612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9754449424469994</v>
+        <v>0.9746256893420825</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>398</v>
@@ -5899,19 +5899,19 @@
         <v>172363</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>166824</v>
+        <v>166804</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>177342</v>
+        <v>177367</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.90228835452217</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8732900728591501</v>
+        <v>0.8731871233030711</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9283522736046468</v>
+        <v>0.9284840370151134</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>636</v>
@@ -5920,19 +5920,19 @@
         <v>328560</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>320813</v>
+        <v>321776</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>334554</v>
+        <v>334678</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9272383700982805</v>
+        <v>0.9272383700982806</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9053729891136296</v>
+        <v>0.9080907756493178</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9441520999521313</v>
+        <v>0.9445043080361628</v>
       </c>
     </row>
     <row r="7">
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4057</v>
+        <v>4166</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006319927782858314</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02276784970898036</v>
+        <v>0.02337495553703329</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -6045,19 +6045,19 @@
         <v>4242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1932</v>
+        <v>1766</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8037</v>
+        <v>7892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01757403029538058</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008006368624556292</v>
+        <v>0.00731815441412986</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03329972937388867</v>
+        <v>0.03269917399696996</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -6066,19 +6066,19 @@
         <v>5368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2801</v>
+        <v>2736</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9905</v>
+        <v>9669</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01279391016876479</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006675357688980109</v>
+        <v>0.006520779940463035</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02360840805001959</v>
+        <v>0.0230447755756607</v>
       </c>
     </row>
     <row r="9">
@@ -6095,19 +6095,19 @@
         <v>7145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3746</v>
+        <v>4077</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12409</v>
+        <v>12777</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04009701476708204</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02102307528613275</v>
+        <v>0.02287640863190971</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06963237805767264</v>
+        <v>0.07169719163624369</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>36</v>
@@ -6116,19 +6116,19 @@
         <v>19640</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14319</v>
+        <v>14358</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26232</v>
+        <v>26676</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08137330610815892</v>
+        <v>0.0813733061081589</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05932750226587158</v>
+        <v>0.05949123056403723</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1086875907392886</v>
+        <v>0.110529222907663</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -6137,19 +6137,19 @@
         <v>26785</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20382</v>
+        <v>19770</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35297</v>
+        <v>35266</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06384142111137665</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04857901696816346</v>
+        <v>0.04712224140599795</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08412884910259932</v>
+        <v>0.0840552158066989</v>
       </c>
     </row>
     <row r="10">
@@ -6166,19 +6166,19 @@
         <v>169932</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164553</v>
+        <v>163266</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>173547</v>
+        <v>173249</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9535830574500597</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9233980781669124</v>
+        <v>0.9161766025094816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.973865243069554</v>
+        <v>0.9721932728207852</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>403</v>
@@ -6187,19 +6187,19 @@
         <v>217470</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210263</v>
+        <v>209504</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223195</v>
+        <v>223269</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9010526635964604</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.871190678257211</v>
+        <v>0.868046042506345</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9247726583809501</v>
+        <v>0.9250792718932858</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>643</v>
@@ -6208,19 +6208,19 @@
         <v>387402</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>377682</v>
+        <v>378738</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>394313</v>
+        <v>394388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9233646687198587</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9001969572218227</v>
+        <v>0.9027144491405412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9398361406888414</v>
+        <v>0.9400161441992204</v>
       </c>
     </row>
     <row r="11">
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7806</v>
+        <v>6607</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008345356351233974</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0488501146368905</v>
+        <v>0.04134815403606268</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -6333,19 +6333,19 @@
         <v>3936</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1260</v>
+        <v>1229</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9062</v>
+        <v>9176</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02250117642281606</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007206564428957714</v>
+        <v>0.007024299885527872</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05180967203700265</v>
+        <v>0.0524597759933554</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -6354,19 +6354,19 @@
         <v>5269</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1832</v>
+        <v>1903</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11579</v>
+        <v>11527</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01574311037121538</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005473001710193532</v>
+        <v>0.005685716671249796</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03459528611231113</v>
+        <v>0.03444173490633828</v>
       </c>
     </row>
     <row r="13">
@@ -6383,19 +6383,19 @@
         <v>3390</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7818</v>
+        <v>8139</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02121518601388784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005516964071875235</v>
+        <v>0.005537768386032812</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04892851691042901</v>
+        <v>0.05093789251742682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -6404,19 +6404,19 @@
         <v>10477</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6266</v>
+        <v>6099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16555</v>
+        <v>16590</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05989721727593075</v>
+        <v>0.05989721727593076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03582386238501874</v>
+        <v>0.03486686252199549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09465051365737961</v>
+        <v>0.09484732830694823</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -6425,19 +6425,19 @@
         <v>13866</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8545</v>
+        <v>8415</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21335</v>
+        <v>20659</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04143020364075729</v>
+        <v>0.0414302036407573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02552938853067322</v>
+        <v>0.02514345532405953</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06374474033617715</v>
+        <v>0.06172485848716347</v>
       </c>
     </row>
     <row r="14">
@@ -6454,19 +6454,19 @@
         <v>155062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148511</v>
+        <v>149632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158166</v>
+        <v>158200</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.970439457634878</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9294418855988381</v>
+        <v>0.9364591938591631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9898692059350493</v>
+        <v>0.9900831913374641</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>267</v>
@@ -6475,19 +6475,19 @@
         <v>160497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153428</v>
+        <v>153832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165646</v>
+        <v>165927</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9176016063012531</v>
+        <v>0.9176016063012533</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8771869379433141</v>
+        <v>0.8794947428675074</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9470407146925058</v>
+        <v>0.9486503786822682</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>455</v>
@@ -6496,19 +6496,19 @@
         <v>315558</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>307615</v>
+        <v>307145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>322400</v>
+        <v>322264</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9428266859880273</v>
+        <v>0.9428266859880275</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9190943006072355</v>
+        <v>0.9176875588522075</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9632689276708674</v>
+        <v>0.9628615581635228</v>
       </c>
     </row>
     <row r="15">
@@ -6600,19 +6600,19 @@
         <v>1916</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5660</v>
+        <v>5163</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008908427947710164</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002822050017986279</v>
+        <v>0.0028261545445295</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02631604455097291</v>
+        <v>0.02400595935615209</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -6621,19 +6621,19 @@
         <v>6063</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3354</v>
+        <v>3059</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10797</v>
+        <v>10386</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02052623898519907</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01135693554687961</v>
+        <v>0.01035605073253146</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03655386203762295</v>
+        <v>0.03516260470418656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -6642,19 +6642,19 @@
         <v>7979</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4286</v>
+        <v>4444</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12479</v>
+        <v>12821</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01563087485655576</v>
+        <v>0.01563087485655577</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008397357288498235</v>
+        <v>0.008705944990112336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02444724710891114</v>
+        <v>0.02511658684962667</v>
       </c>
     </row>
     <row r="17">
@@ -6671,19 +6671,19 @@
         <v>4179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1739</v>
+        <v>1787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8309</v>
+        <v>8218</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01942741996176039</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008083506373504407</v>
+        <v>0.008308803923341336</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03863041606621714</v>
+        <v>0.03820688304042104</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -6692,19 +6692,19 @@
         <v>14537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9517</v>
+        <v>9422</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21939</v>
+        <v>23099</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04921820813652716</v>
+        <v>0.04921820813652714</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03222112602141848</v>
+        <v>0.03189903965113597</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07427626624208832</v>
+        <v>0.0782062852290281</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -6713,19 +6713,19 @@
         <v>18716</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12282</v>
+        <v>12686</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26353</v>
+        <v>27565</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03666534810771697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02406027509091069</v>
+        <v>0.02485292187984288</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05162581623266547</v>
+        <v>0.0540010545798383</v>
       </c>
     </row>
     <row r="18">
@@ -6742,19 +6742,19 @@
         <v>208994</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>204206</v>
+        <v>204132</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212069</v>
+        <v>211963</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9716641520905294</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.949402205384471</v>
+        <v>0.9490568812827989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9859577734471682</v>
+        <v>0.9854657234922516</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>491</v>
@@ -6763,19 +6763,19 @@
         <v>274766</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>266067</v>
+        <v>265760</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>280536</v>
+        <v>281013</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9302555528782739</v>
+        <v>0.9302555528782736</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9008048527300598</v>
+        <v>0.8997656102344133</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9497921939849671</v>
+        <v>0.9514074472277492</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>808</v>
@@ -6784,19 +6784,19 @@
         <v>483759</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>474922</v>
+        <v>474579</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>491632</v>
+        <v>490778</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9477037770357272</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9303907458039422</v>
+        <v>0.9297188177828428</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.963127413255089</v>
+        <v>0.9614530642219132</v>
       </c>
     </row>
     <row r="19">
@@ -6888,19 +6888,19 @@
         <v>5892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2854</v>
+        <v>2732</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11840</v>
+        <v>11547</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008224292395519091</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003983453279132653</v>
+        <v>0.003813164735550636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01652713431020343</v>
+        <v>0.01611880254934312</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -6909,19 +6909,19 @@
         <v>17707</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12401</v>
+        <v>12335</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24881</v>
+        <v>24300</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01961628275669963</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01373820758860515</v>
+        <v>0.01366517365861138</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02756377284141548</v>
+        <v>0.02692013097108242</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>43</v>
@@ -6930,19 +6930,19 @@
         <v>23599</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17157</v>
+        <v>17113</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31598</v>
+        <v>32725</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01457558519912852</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01059669886172721</v>
+        <v>0.01056976378828293</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.019516493302466</v>
+        <v>0.02021239267451483</v>
       </c>
     </row>
     <row r="21">
@@ -6959,19 +6959,19 @@
         <v>20315</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14129</v>
+        <v>14039</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28619</v>
+        <v>28824</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02835703768019497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01972241511098157</v>
+        <v>0.01959671998706744</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03994845181074397</v>
+        <v>0.04023468161484554</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>114</v>
@@ -6980,19 +6980,19 @@
         <v>59852</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50319</v>
+        <v>48572</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>72515</v>
+        <v>71990</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06630709410687313</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05574604504182804</v>
+        <v>0.05381028555217597</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08033512849372412</v>
+        <v>0.07975389629058886</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>148</v>
@@ -7001,19 +7001,19 @@
         <v>80167</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>68342</v>
+        <v>67632</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>95079</v>
+        <v>94796</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04951505420210807</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04221131145489716</v>
+        <v>0.04177275822891852</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05872518108705984</v>
+        <v>0.05855033166064243</v>
       </c>
     </row>
     <row r="22">
@@ -7030,19 +7030,19 @@
         <v>690184</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>680384</v>
+        <v>680406</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>697447</v>
+        <v>697754</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.963418669924286</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9497383891355211</v>
+        <v>0.9497683856064113</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9735568810441592</v>
+        <v>0.9739849515610464</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1559</v>
@@ -7051,19 +7051,19 @@
         <v>825096</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>810878</v>
+        <v>812847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>836806</v>
+        <v>837748</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9140766231364272</v>
+        <v>0.9140766231364271</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8983250566438407</v>
+        <v>0.9005072109619572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9270500524061429</v>
+        <v>0.9280927612106401</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2542</v>
@@ -7072,19 +7072,19 @@
         <v>1515280</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1498610</v>
+        <v>1498192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1529281</v>
+        <v>1528875</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9359093605987634</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9256128834683455</v>
+        <v>0.925354929209504</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9445568754978759</v>
+        <v>0.9443062618950928</v>
       </c>
     </row>
     <row r="23">
